--- a/02_MasterWifoMannheim/03_Courses/Course95.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course95.xlsx
@@ -1,37 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/99_Backup/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3005A715B7A3B115925F8F4606DFD79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F622451-1CB1-40F0-AF3E-FA70097FB7FF}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>IS 607 Digital Innovation</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>Digital innovations influence every aspect of our lives in this increasingly technological world. Firms that pursue digital innovations must think carefully about how digital technologies shape the nature, process and outcomes of innovation as well as the long- and short-term social, economic and cultural consequences of their offerings. The attempts to contribute to building a transdisciplinary understanding of digital innovation by bringing together a diverse set of research papers from leading scholars from business, engineering, economics, science and public policy. Their distinct perspectives advance ideas and principles intended to set the agenda for current and future research on digital innovation in ways that inform primarily firm-level strategies and practices. The course provides scope and depth for master students interested in information systems and digital technologies, innovation and entrepreneurship, strategy, and digital platforms and ecosystems. In addition, it is informative to scholars interested in the impact of digital technologies on organizations and the broader society. The course will be taught on a flipped classroom basis. A flipped classroom is an instructional strategy and a type of blended learning focused on student engagement and active learning, giving the instructor a better opportunity to deal with mixed levels, student difficulties, and differentiated learning preferences during in-class time. This format intentionally shifts instruction to a student-centred model in which time in the classroom is used to explore topics in greater depth and create meaningful learning opportunities while students are initially introduced to new topics outside of the classroom. Content delivery takes place through mandatory pre-readings and collaborative class discussions.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>Students that accomplish this course will - understand the foundations of digital innovations, - be proficient in digital platforms, ecosystems, and entrepreneurship, - advance their knowledge on business models and value creation in digital innovation, - comprehend its impact on the future of work, and - be exposed to transdisciplinary application domains.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>IS 512| IS 615</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on registration:Website of the Chair</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lectures &amp; class discussions 2</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written exam (60 min.)</t>
+  </si>
+  <si>
+    <t>Preliminary course work</t>
+  </si>
+  <si>
+    <t>Reading the respective chapter in the assigned literature</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Armin Heinzl</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>One semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>FWS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., and M.Sc. Bus. Inf.</t>
+  </si>
+  <si>
+    <t>IT Management (ITM)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +154,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,221 +478,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IS 607 Digital Innovation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Digital innovations influence every aspect of our lives in this increasingly technological world. Firms that pursue digital innovations must think carefully about how digital technologies shape the nature, process and outcomes of innovation as well as the long- and short-term social, economic and cultural consequences of their offerings. The attempts to contribute to building a transdisciplinary understanding of digital innovation by bringing together a diverse set of research papers from leading scholars from business, engineering, economics, science and public policy. Their distinct perspectives advance ideas and principles intended to set the agenda for current and future research on digital innovation in ways that inform primarily firm-level strategies and practices. The course provides scope and depth for master students interested in information systems and digital technologies, innovation and entrepreneurship, strategy, and digital platforms and ecosystems. In addition, it is informative to scholars interested in the impact of digital technologies on organizations and the broader society. The course will be taught on a flipped classroom basis. A flipped classroom is an instructional strategy and a type of blended learning focused on student engagement and active learning, giving the instructor a better opportunity to deal with mixed levels, student difficulties, and differentiated learning preferences during in-class time. This format intentionally shifts instruction to a student-centred model in which time in the classroom is used to explore topics in greater depth and create meaningful learning opportunities while students are initially introduced to new topics outside of the classroom. Content delivery takes place through mandatory pre-readings and collaborative class discussions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Students that accomplish this course will - understand the foundations of digital innovations, - be proficient in digital platforms, ecosystems, and entrepreneurship, - advance their knowledge on business models and value creation in digital innovation, - comprehend its impact on the future of work, and - be exposed to transdisciplinary application domains.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IS 615, 512</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>IS 512| IS 615</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Further Information on registration:Website of the Chair</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lectures &amp; class discussions 2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Written exam (60 min.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Reading the respective chapter in the assigned literature</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Armin Heinzl</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>One semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>FWS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., and M.Sc. Bus. Inf.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
